--- a/src/com/bivc/cimsmgs/xls/OCENA STANU TECHNICZNEGO KONTENERA.xlsx
+++ b/src/com/bivc/cimsmgs/xls/OCENA STANU TECHNICZNEGO KONTENERA.xlsx
@@ -146,7 +146,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,11 +219,28 @@
       <charset val="204"/>
     </font>
     <font>
-      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -402,10 +419,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyBorder="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyBorder="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -428,7 +451,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -457,9 +479,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -472,51 +491,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -547,16 +531,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyBorder="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyBorder="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyBorder="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyBorder="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyBorder="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -592,23 +582,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Стиль 1" xfId="1"/>
+    <cellStyle name="Стиль 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -967,7 +1005,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M38"/>
+  <dimension ref="B1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -986,148 +1024,147 @@
     <col min="13" max="13" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="46" t="s">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-    </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="61" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+    </row>
+    <row r="3" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="67" t="s">
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="40" t="s">
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-    </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="45"/>
-    </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="54" t="s">
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
+    </row>
+    <row r="4" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="70"/>
+    </row>
+    <row r="5" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="16"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="57"/>
-      <c r="M5" s="60" t="s">
+      <c r="L5" s="45"/>
+      <c r="M5" s="48" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="72"/>
-    </row>
-    <row r="7" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="52" t="s">
+    <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="49"/>
+    </row>
+    <row r="7" spans="2:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="54" t="s">
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="52" t="s">
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="56"/>
-      <c r="M7" s="24" t="s">
+      <c r="L7" s="43"/>
+      <c r="M7" s="23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="35"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="25"/>
-    </row>
-    <row r="9" spans="1:13" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="71"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="76"/>
+    </row>
+    <row r="9" spans="2:13" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="65"/>
-      <c r="E9" s="66"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="55"/>
       <c r="F9" s="7" t="s">
         <v>5</v>
       </c>
@@ -1153,15 +1190,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="65"/>
-      <c r="E10" s="66"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="55"/>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
@@ -1177,7 +1214,7 @@
       <c r="J10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="15" t="s">
         <v>22</v>
       </c>
       <c r="L10" s="7" t="s">
@@ -1189,79 +1226,79 @@
     </row>
     <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="2:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="73"/>
-      <c r="C21" s="74" t="s">
+      <c r="B21" s="28"/>
+      <c r="C21" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="70" t="s">
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="60"/>
     </row>
     <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="27"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
     </row>
     <row r="23" spans="2:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="73"/>
-      <c r="C23" s="76" t="s">
+      <c r="B23" s="28"/>
+      <c r="C23" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="31" t="s">
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
     </row>
     <row r="24" spans="2:13" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
     </row>
     <row r="25" spans="2:13" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="51"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="38"/>
     </row>
     <row r="27" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
     </row>
     <row r="29" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
@@ -1320,39 +1357,44 @@
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="1"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="78"/>
       <c r="J33" s="2" t="s">
         <v>35</v>
       </c>
       <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="1"/>
+      <c r="L33" s="77"/>
+      <c r="M33" s="78"/>
     </row>
     <row r="34" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="3"/>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="14"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="80"/>
       <c r="J34" s="13"/>
       <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="14"/>
+      <c r="L34" s="79"/>
+      <c r="M34" s="80"/>
     </row>
     <row r="38" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="I38" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="21">
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K8:L8"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="K4:M4"/>
+    <mergeCell ref="E33:I34"/>
+    <mergeCell ref="L33:M34"/>
     <mergeCell ref="B1:M2"/>
     <mergeCell ref="B25:M25"/>
     <mergeCell ref="B7:F7"/>
@@ -1367,9 +1409,6 @@
     <mergeCell ref="K21:M21"/>
     <mergeCell ref="K23:M23"/>
     <mergeCell ref="G4:J6"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K8:L8"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
